--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_18_45.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_18_45.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10006.62210263499</v>
+        <v>1991317.798424363</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10006.62210263499</v>
+        <v>1991317.798424363</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>14996.07401095298</v>
+        <v>900345.16584478</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14996.07401095298</v>
+        <v>900345.16584478</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>960322602.8530197</v>
+        <v>40311400.96151666</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9892.169790378643</v>
+        <v>1072634.833157558</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>18119.10881359505</v>
+        <v>1859745.483365429</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>26346.04783681145</v>
+        <v>2646856.133573302</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>35199.58915109665</v>
+        <v>3397419.138517676</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>43520.92010523649</v>
+        <v>4184289.069848231</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>51842.25105937632</v>
+        <v>4971159.001178784</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>60163.58201351616</v>
+        <v>5758028.932509337</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>68484.912967656</v>
+        <v>6544898.863839889</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>77380.30323567276</v>
+        <v>7267698.898950609</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>86361.22077641678</v>
+        <v>8007518.861334058</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>94779.63200908776</v>
+        <v>8796283.626846435</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>103133.1850599405</v>
+        <v>9572141.614176994</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>111486.7381107933</v>
+        <v>10347999.60150755</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>119840.2911616461</v>
+        <v>11123857.58883811</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>128920.0317697516</v>
+        <v>11862984.49551567</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>247</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,16 +27144,16 @@
         <v>1231</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
